--- a/Results/Opinion/beda-FOOD.xlsx
+++ b/Results/Opinion/beda-FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -34,39 +34,21 @@
     <t>acceptable</t>
   </si>
   <si>
-    <t>authentic</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
     <t>averagethe</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>baked</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>chinese</t>
   </si>
   <si>
-    <t>complimentary</t>
-  </si>
-  <si>
     <t>crunchy</t>
   </si>
   <si>
@@ -82,21 +64,12 @@
     <t>empty</t>
   </si>
   <si>
-    <t>exceptional</t>
-  </si>
-  <si>
     <t>exotic</t>
   </si>
   <si>
-    <t>expensive</t>
-  </si>
-  <si>
     <t>extensive</t>
   </si>
   <si>
-    <t>fine</t>
-  </si>
-  <si>
     <t>fishy</t>
   </si>
   <si>
@@ -106,18 +79,9 @@
     <t>flavorless</t>
   </si>
   <si>
-    <t>fried</t>
-  </si>
-  <si>
     <t>goodbut</t>
   </si>
   <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
     <t>huge</t>
   </si>
   <si>
@@ -127,9 +91,6 @@
     <t>inedible</t>
   </si>
   <si>
-    <t>innovative</t>
-  </si>
-  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -172,15 +133,9 @@
     <t>prepared</t>
   </si>
   <si>
-    <t>pricey</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
-    <t>rough</t>
-  </si>
-  <si>
     <t>simple</t>
   </si>
   <si>
@@ -193,15 +148,9 @@
     <t>such</t>
   </si>
   <si>
-    <t>superb</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>sweet</t>
-  </si>
-  <si>
     <t>taiwanese</t>
   </si>
   <si>
@@ -217,9 +166,6 @@
     <t>uni</t>
   </si>
   <si>
-    <t>unusual</t>
-  </si>
-  <si>
     <t>upstate</t>
   </si>
   <si>
@@ -236,9 +182,6 @@
   </si>
   <si>
     <t>baru</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -596,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -644,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -655,16 +598,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,16 +615,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -689,16 +632,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -706,16 +649,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,16 +666,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,16 +683,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -757,16 +700,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -774,16 +717,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -791,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -808,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -825,16 +768,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -842,16 +785,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,16 +802,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -876,16 +819,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,16 +836,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,16 +853,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -927,16 +870,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -944,16 +887,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -961,16 +904,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -978,16 +921,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -995,16 +938,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1012,16 +955,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1029,16 +972,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1046,16 +989,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1063,16 +1006,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1080,16 +1023,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1097,16 +1040,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1114,16 +1057,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1131,16 +1074,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1148,16 +1091,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1165,16 +1108,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1182,16 +1125,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1199,16 +1142,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1216,16 +1159,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1233,16 +1176,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1250,16 +1193,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1267,16 +1210,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1284,16 +1227,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1301,16 +1244,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1318,16 +1261,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1335,16 +1278,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1352,16 +1295,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1369,16 +1312,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1386,16 +1329,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1403,16 +1346,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1420,16 +1363,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1437,322 +1380,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>73</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>76</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>81</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>83</v>
-      </c>
-      <c r="C56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>85</v>
-      </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>87</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>88</v>
-      </c>
-      <c r="C61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>90</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>91</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>94</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>95</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>96</v>
-      </c>
-      <c r="C66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>97</v>
-      </c>
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>100</v>
-      </c>
-      <c r="C68" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/beda-FOOD.xlsx
+++ b/Results/Opinion/beda-FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -34,18 +34,30 @@
     <t>acceptable</t>
   </si>
   <si>
+    <t>authentic</t>
+  </si>
+  <si>
     <t>average</t>
   </si>
   <si>
     <t>averagethe</t>
   </si>
   <si>
-    <t>baked</t>
+    <t>bad</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>chinese</t>
   </si>
   <si>
@@ -64,12 +76,21 @@
     <t>empty</t>
   </si>
   <si>
+    <t>exceptional</t>
+  </si>
+  <si>
     <t>exotic</t>
   </si>
   <si>
+    <t>expensive</t>
+  </si>
+  <si>
     <t>extensive</t>
   </si>
   <si>
+    <t>fine</t>
+  </si>
+  <si>
     <t>fishy</t>
   </si>
   <si>
@@ -79,9 +100,18 @@
     <t>flavorless</t>
   </si>
   <si>
+    <t>fried</t>
+  </si>
+  <si>
     <t>goodbut</t>
   </si>
   <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
     <t>huge</t>
   </si>
   <si>
@@ -91,6 +121,9 @@
     <t>inedible</t>
   </si>
   <si>
+    <t>innovative</t>
+  </si>
+  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -133,9 +166,15 @@
     <t>prepared</t>
   </si>
   <si>
+    <t>pricey</t>
+  </si>
+  <si>
     <t>purple</t>
   </si>
   <si>
+    <t>rough</t>
+  </si>
+  <si>
     <t>simple</t>
   </si>
   <si>
@@ -148,6 +187,9 @@
     <t>such</t>
   </si>
   <si>
+    <t>superb</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
@@ -166,6 +208,9 @@
     <t>uni</t>
   </si>
   <si>
+    <t>unusual</t>
+  </si>
+  <si>
     <t>upstate</t>
   </si>
   <si>
@@ -182,6 +227,9 @@
   </si>
   <si>
     <t>baru</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -539,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -587,10 +635,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -598,16 +646,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -615,16 +663,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -632,16 +680,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -649,16 +697,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -666,16 +714,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -683,16 +731,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -700,16 +748,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -717,16 +765,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -734,16 +782,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -751,16 +799,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -768,16 +816,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -785,16 +833,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -802,16 +850,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -819,16 +867,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -836,16 +884,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -853,16 +901,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -870,16 +918,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -887,16 +935,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -904,16 +952,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -921,16 +969,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -938,16 +986,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -955,16 +1003,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -972,16 +1020,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -989,16 +1037,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1006,16 +1054,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1023,16 +1071,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1040,16 +1088,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1057,16 +1105,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1074,16 +1122,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1091,16 +1139,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1108,16 +1156,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1125,16 +1173,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1142,16 +1190,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1159,16 +1207,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1176,16 +1224,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1193,16 +1241,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1210,16 +1258,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1227,16 +1275,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1244,16 +1292,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1261,16 +1309,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1278,16 +1326,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1295,16 +1343,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1312,16 +1360,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1329,16 +1377,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1346,16 +1394,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1363,16 +1411,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1380,16 +1428,271 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
         <v>53</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
         <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
